--- a/data/trans_orig/P37C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23C17810-4A27-41EB-A15E-BD407FEEDA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDF27E99-630A-4C0A-920F-E4824FC5C9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{072913D6-A5A0-4701-A9F6-618A0A9D90D2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05EE0845-B7EF-4352-9BEF-19A2BD4D0C70}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="179">
   <si>
     <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023 (Tasa respuesta: 99,41%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>1,92%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -86,7 +86,7 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,52%</t>
+    <t>0,48%</t>
   </si>
   <si>
     <t>0,26%</t>
@@ -95,7 +95,7 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,9%</t>
+    <t>0,93%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
@@ -104,478 +104,472 @@
     <t>1,35%</t>
   </si>
   <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,3%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,48%</t>
+    <t>0,87%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
   </si>
   <si>
     <t>76,93%</t>
   </si>
   <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
   </si>
   <si>
     <t>74,72%</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680C7EF1-858D-4A06-86D9-EED1F7BDC538}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57E3D3B-2571-4FFD-BDF9-8227BEA9E417}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1186,7 +1180,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -1195,13 +1189,13 @@
         <v>10440</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,10 +1449,10 @@
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1476,10 +1470,10 @@
         <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -1488,13 +1482,13 @@
         <v>9473</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -1506,10 +1500,10 @@
         <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,13 +1518,13 @@
         <v>95335</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
@@ -1539,13 +1533,13 @@
         <v>57731</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>162</v>
@@ -1554,13 +1548,13 @@
         <v>153066</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,13 +1569,13 @@
         <v>500098</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>707</v>
@@ -1590,13 +1584,13 @@
         <v>473010</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>1185</v>
@@ -1605,13 +1599,13 @@
         <v>973109</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,13 +1620,13 @@
         <v>1532019</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>2111</v>
@@ -1641,13 +1635,13 @@
         <v>1696496</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>3503</v>
@@ -1656,13 +1650,13 @@
         <v>3228515</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,7 +1712,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1730,13 +1724,13 @@
         <v>4469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1745,13 +1739,13 @@
         <v>696</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1760,13 +1754,13 @@
         <v>5166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,13 +1775,13 @@
         <v>5263</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1796,13 +1790,13 @@
         <v>5065</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -1814,10 +1808,10 @@
         <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1826,13 @@
         <v>16358</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -1847,13 +1841,13 @@
         <v>12037</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -1862,10 +1856,10 @@
         <v>28395</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>123</v>
@@ -2038,13 +2032,13 @@
         <v>12371</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2053,13 +2047,13 @@
         <v>10959</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -2071,10 +2065,10 @@
         <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,10 +2083,10 @@
         <v>28592</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>148</v>
@@ -2110,7 +2104,7 @@
         <v>150</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>56</v>
@@ -2122,10 +2116,10 @@
         <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2149,13 @@
         <v>100866</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>290</v>
@@ -2170,13 +2164,13 @@
         <v>246042</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,16 +2182,16 @@
         <v>741</v>
       </c>
       <c r="D25" s="7">
-        <v>744349</v>
+        <v>744348</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>1140</v>
@@ -2206,13 +2200,13 @@
         <v>743512</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>1881</v>
@@ -2221,13 +2215,13 @@
         <v>1487861</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,16 +2233,16 @@
         <v>2410</v>
       </c>
       <c r="D26" s="7">
-        <v>2420319</v>
+        <v>2420318</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>4009</v>
@@ -2257,13 +2251,13 @@
         <v>2911040</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>6419</v>
@@ -2272,13 +2266,13 @@
         <v>5331358</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,7 +2284,7 @@
         <v>3339</v>
       </c>
       <c r="D27" s="7">
-        <v>3350806</v>
+        <v>3350805</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -2334,7 +2328,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDF27E99-630A-4C0A-920F-E4824FC5C9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0492BAD-8F95-4FFC-8B18-3AB61023790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05EE0845-B7EF-4352-9BEF-19A2BD4D0C70}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5062B272-54FD-4C8A-8630-DF2D37E133BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57E3D3B-2571-4FFD-BDF9-8227BEA9E417}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC854C7-C94D-4984-B9EA-F44810C897CC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0492BAD-8F95-4FFC-8B18-3AB61023790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A261E73-8B03-4F0A-B0BE-208C56B52DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5062B272-54FD-4C8A-8630-DF2D37E133BA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{565C1B59-657D-4985-BAF6-587947579BD7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="181">
   <si>
     <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023 (Tasa respuesta: 99,41%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,92%</t>
+    <t>1,97%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -86,490 +86,496 @@
     <t>0,05%</t>
   </si>
   <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>76,93%</t>
   </si>
   <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
   </si>
   <si>
     <t>74,72%</t>
   </si>
   <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC854C7-C94D-4984-B9EA-F44810C897CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320B7457-6567-474B-B277-51374E7C2834}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1180,7 +1186,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -1189,13 +1195,13 @@
         <v>10440</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1449,10 +1455,10 @@
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1470,10 +1476,10 @@
         <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -1482,13 +1488,13 @@
         <v>9473</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -1500,10 +1506,10 @@
         <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1518,13 +1524,13 @@
         <v>95335</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
@@ -1533,13 +1539,13 @@
         <v>57731</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>162</v>
@@ -1548,13 +1554,13 @@
         <v>153066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1569,13 +1575,13 @@
         <v>500098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>707</v>
@@ -1584,13 +1590,13 @@
         <v>473010</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>1185</v>
@@ -1599,13 +1605,13 @@
         <v>973109</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1626,13 @@
         <v>1532019</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>2111</v>
@@ -1635,13 +1641,13 @@
         <v>1696496</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>3503</v>
@@ -1650,13 +1656,13 @@
         <v>3228515</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,7 +1718,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1724,13 +1730,13 @@
         <v>4469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1739,13 +1745,13 @@
         <v>696</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1754,13 +1760,13 @@
         <v>5166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1781,13 @@
         <v>5263</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1790,13 +1796,13 @@
         <v>5065</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -1808,10 +1814,10 @@
         <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1832,13 @@
         <v>16358</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -1841,13 +1847,13 @@
         <v>12037</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -1856,10 +1862,10 @@
         <v>28395</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>123</v>
@@ -2032,13 +2038,13 @@
         <v>12371</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2047,13 +2053,13 @@
         <v>10959</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -2065,10 +2071,10 @@
         <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,10 +2089,10 @@
         <v>28592</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>148</v>
@@ -2104,7 +2110,7 @@
         <v>150</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="M23" s="7">
         <v>56</v>
@@ -2116,10 +2122,10 @@
         <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2155,13 @@
         <v>100866</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>290</v>
@@ -2164,13 +2170,13 @@
         <v>246042</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,16 +2188,16 @@
         <v>741</v>
       </c>
       <c r="D25" s="7">
-        <v>744348</v>
+        <v>744349</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>1140</v>
@@ -2200,13 +2206,13 @@
         <v>743512</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>1881</v>
@@ -2215,13 +2221,13 @@
         <v>1487861</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,16 +2239,16 @@
         <v>2410</v>
       </c>
       <c r="D26" s="7">
-        <v>2420318</v>
+        <v>2420319</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>4009</v>
@@ -2251,13 +2257,13 @@
         <v>2911040</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>6419</v>
@@ -2266,13 +2272,13 @@
         <v>5331358</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,7 +2290,7 @@
         <v>3339</v>
       </c>
       <c r="D27" s="7">
-        <v>3350805</v>
+        <v>3350806</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -2328,7 +2334,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A261E73-8B03-4F0A-B0BE-208C56B52DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8C182F2-E671-4175-AE1A-DC0A1CC9E3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{565C1B59-657D-4985-BAF6-587947579BD7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{465DEA33-42AF-4D21-B719-E0205C22E75D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="177">
   <si>
     <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023 (Tasa respuesta: 99,41%)</t>
   </si>
@@ -71,511 +71,499 @@
     <t>Totalmente en desacuerdo</t>
   </si>
   <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
   </si>
   <si>
     <t>76,66%</t>
   </si>
   <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320B7457-6567-474B-B277-51374E7C2834}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A104F5B-29CB-4D98-A4C7-40DB0AE1141F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>2053</v>
+        <v>1990</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1126,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1473</v>
+        <v>1362</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1141,7 +1129,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>3526</v>
+        <v>3352</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1162,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>7118</v>
+        <v>6213</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1177,184 +1165,184 @@
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>3321</v>
+        <v>2970</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>10440</v>
+        <v>9183</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>41</v>
       </c>
       <c r="D6" s="7">
-        <v>33483</v>
+        <v>31493</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>53</v>
       </c>
       <c r="I6" s="7">
-        <v>31097</v>
+        <v>28000</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>94</v>
       </c>
       <c r="N6" s="7">
-        <v>64580</v>
+        <v>59493</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>103</v>
       </c>
       <c r="D7" s="7">
-        <v>88360</v>
+        <v>80380</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>232</v>
       </c>
       <c r="I7" s="7">
-        <v>149133</v>
+        <v>130557</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>335</v>
       </c>
       <c r="N7" s="7">
-        <v>237493</v>
+        <v>210937</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>524</v>
       </c>
       <c r="D8" s="7">
-        <v>397914</v>
+        <v>382627</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>1120</v>
       </c>
       <c r="I8" s="7">
-        <v>639825</v>
+        <v>582733</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>1644</v>
       </c>
       <c r="N8" s="7">
-        <v>1037739</v>
+        <v>965360</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1366,51 +1354,51 @@
         <v>677</v>
       </c>
       <c r="D9" s="7">
-        <v>528929</v>
+        <v>502702</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>1413</v>
       </c>
       <c r="I9" s="7">
-        <v>824850</v>
+        <v>745623</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>2090</v>
       </c>
       <c r="N9" s="7">
-        <v>1353779</v>
+        <v>1248325</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1419,25 +1407,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>5848</v>
+        <v>5840</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>8790</v>
+        <v>8207</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>64</v>
@@ -1449,16 +1437,16 @@
         <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>14637</v>
+        <v>14048</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1470,13 +1458,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>16211</v>
+        <v>15117</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>69</v>
@@ -1485,7 +1473,7 @@
         <v>13</v>
       </c>
       <c r="I11" s="7">
-        <v>9473</v>
+        <v>8637</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>70</v>
@@ -1500,169 +1488,169 @@
         <v>31</v>
       </c>
       <c r="N11" s="7">
-        <v>25684</v>
+        <v>23754</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
         <v>89</v>
       </c>
       <c r="D12" s="7">
-        <v>95335</v>
+        <v>86906</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
       </c>
       <c r="I12" s="7">
-        <v>57731</v>
+        <v>52585</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>162</v>
       </c>
       <c r="N12" s="7">
-        <v>153066</v>
+        <v>139490</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>478</v>
       </c>
       <c r="D13" s="7">
-        <v>500098</v>
+        <v>469165</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>707</v>
       </c>
       <c r="I13" s="7">
-        <v>473010</v>
+        <v>423387</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>1185</v>
       </c>
       <c r="N13" s="7">
-        <v>973109</v>
+        <v>892553</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1392</v>
       </c>
       <c r="D14" s="7">
-        <v>1532019</v>
+        <v>1701185</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>2111</v>
       </c>
       <c r="I14" s="7">
-        <v>1696496</v>
+        <v>1741311</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>3503</v>
       </c>
       <c r="N14" s="7">
-        <v>3228515</v>
+        <v>3442496</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,51 +1662,51 @@
         <v>1982</v>
       </c>
       <c r="D15" s="7">
-        <v>2149511</v>
+        <v>2278213</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>2915</v>
       </c>
       <c r="I15" s="7">
-        <v>2245500</v>
+        <v>2234127</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>4897</v>
       </c>
       <c r="N15" s="7">
-        <v>4395011</v>
+        <v>4512340</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1727,46 +1715,46 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>4469</v>
+        <v>4500</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>696</v>
+        <v>641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>5166</v>
+        <v>5141</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,199 +1766,199 @@
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>5263</v>
+        <v>4799</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>5065</v>
+        <v>4595</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>10328</v>
+        <v>9394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>16358</v>
+        <v>15478</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
       </c>
       <c r="I18" s="7">
-        <v>12037</v>
+        <v>11448</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
       </c>
       <c r="N18" s="7">
-        <v>28395</v>
+        <v>26926</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>160</v>
       </c>
       <c r="D19" s="7">
-        <v>155890</v>
+        <v>145076</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>201</v>
       </c>
       <c r="I19" s="7">
-        <v>121369</v>
+        <v>110039</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>361</v>
       </c>
       <c r="N19" s="7">
-        <v>277259</v>
+        <v>255115</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>494</v>
       </c>
       <c r="D20" s="7">
-        <v>490386</v>
+        <v>476044</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>778</v>
       </c>
       <c r="I20" s="7">
-        <v>574718</v>
+        <v>533740</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>1272</v>
       </c>
       <c r="N20" s="7">
-        <v>1065104</v>
+        <v>1009784</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,46 +1970,46 @@
         <v>680</v>
       </c>
       <c r="D21" s="7">
-        <v>672366</v>
+        <v>645898</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1684</v>
       </c>
       <c r="N21" s="7">
-        <v>1386252</v>
+        <v>1306361</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,46 +2023,46 @@
         <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>12371</v>
+        <v>12330</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
       </c>
       <c r="I22" s="7">
-        <v>10959</v>
+        <v>10211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
       </c>
       <c r="N22" s="7">
-        <v>23330</v>
+        <v>22541</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,199 +2074,199 @@
         <v>32</v>
       </c>
       <c r="D23" s="7">
-        <v>28592</v>
+        <v>26129</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
       </c>
       <c r="I23" s="7">
-        <v>17860</v>
+        <v>16202</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>56</v>
       </c>
       <c r="N23" s="7">
-        <v>46452</v>
+        <v>42331</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>146</v>
       </c>
       <c r="D24" s="7">
-        <v>145176</v>
+        <v>133877</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>144</v>
       </c>
       <c r="I24" s="7">
-        <v>100866</v>
+        <v>92033</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="M24" s="7">
         <v>290</v>
       </c>
       <c r="N24" s="7">
-        <v>246042</v>
+        <v>225909</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>741</v>
       </c>
       <c r="D25" s="7">
-        <v>744349</v>
+        <v>694621</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>1140</v>
       </c>
       <c r="I25" s="7">
-        <v>743512</v>
+        <v>663984</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>1881</v>
       </c>
       <c r="N25" s="7">
-        <v>1487861</v>
+        <v>1358605</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2410</v>
       </c>
       <c r="D26" s="7">
-        <v>2420319</v>
+        <v>2559857</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>4009</v>
       </c>
       <c r="I26" s="7">
-        <v>2911040</v>
+        <v>2857783</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>6419</v>
       </c>
       <c r="N26" s="7">
-        <v>5331358</v>
+        <v>5417640</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,51 +2278,51 @@
         <v>3339</v>
       </c>
       <c r="D27" s="7">
-        <v>3350806</v>
+        <v>3426814</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>5332</v>
       </c>
       <c r="I27" s="7">
-        <v>3784237</v>
+        <v>3640213</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>8671</v>
       </c>
       <c r="N27" s="7">
-        <v>7135042</v>
+        <v>7067027</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023</t>
+          <t>Población según la creencia de si es importante vacunar a los niños/as en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
